--- a/xlsx/hw3.xlsx
+++ b/xlsx/hw3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13466\source\repos\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5697333-8AFA-4389-AB42-A27B4623DFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA3AA1E-9BF4-4F0D-B697-B8E841C55E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2316" yWindow="1620" windowWidth="19176" windowHeight="12480" xr2:uid="{EA092A42-1670-4D44-86F1-B9E7694F8A62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EA092A42-1670-4D44-86F1-B9E7694F8A62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <definedName name="f">Sheet1!$C$3</definedName>
     <definedName name="k">Sheet1!$C$5</definedName>
     <definedName name="k2_">Sheet1!$C$13</definedName>
-    <definedName name="m">Sheet1!$C$6</definedName>
-    <definedName name="m2_">Sheet1!$C$15</definedName>
+    <definedName name="m">Sheet1!$C$14</definedName>
+    <definedName name="m2_">Sheet1!#REF!</definedName>
     <definedName name="r_">Sheet1!$C$10</definedName>
     <definedName name="s">Sheet1!$C$4</definedName>
     <definedName name="s0">Sheet1!$C$11</definedName>
     <definedName name="sigma">Sheet1!$C$12</definedName>
-    <definedName name="t">Sheet1!$C$14</definedName>
+    <definedName name="t">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>f</t>
   </si>
@@ -84,34 +84,13 @@
     <t>m</t>
   </si>
   <si>
-    <t>r</t>
+    <t>Moneyness</t>
   </si>
   <si>
-    <t>s0</t>
+    <t>Put</t>
   </si>
   <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>bsm_put</t>
-  </si>
-  <si>
-    <t>bsm_call</t>
-  </si>
-  <si>
-    <t>black_put</t>
-  </si>
-  <si>
-    <t>black_call</t>
-  </si>
-  <si>
-    <t>k2</t>
-  </si>
-  <si>
-    <t>m2</t>
+    <t>Call</t>
   </si>
 </sst>
 </file>
@@ -573,19 +552,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE06CDEE-4F3C-473F-9F8B-5F0D6CBFE894}">
-  <dimension ref="B3:C17"/>
+  <dimension ref="B3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.58203125" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,115 +573,172 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" cm="1">
+        <f t="array" ref="C5:C13">_xlfn.SEQUENCE(9, 1, 80, 5)</f>
+        <v>80</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5:D13">_xlfn.MAP(_xlfn.ANCHORARRAY(k), _xlfn.LAMBDA(_xlpm.k, _xll.OPTION.BLACK.MONEYNESS(f, s, _xlpm.k, m)))</f>
+        <v>-2.1814355131420968</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" ref="E5:E13">_xlfn.MAP(_xlfn.ANCHORARRAY(k), _xlfn.LAMBDA(_xlpm.k, _xll.OPTION.BLACK.PUT(f, s, _xlpm.k, m)))</f>
+        <v>3.9913489502149124E-2</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5:F13">_xlfn.MAP(_xlfn.ANCHORARRAY(k), _xlfn.LAMBDA(_xlpm.k, _xll.OPTION.BLACK.CALL(f, s, _xlpm.k, m)))</f>
+        <v>20.039913489502155</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>85</v>
+      </c>
+      <c r="D6">
+        <v>-1.5751892949777493</v>
+      </c>
+      <c r="E6">
+        <v>0.20169020324580078</v>
+      </c>
+      <c r="F6">
+        <v>15.201690203245803</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>-1.0036051565782627</v>
+      </c>
+      <c r="E7">
+        <v>0.7123773837400833</v>
+      </c>
+      <c r="F7">
+        <v>10.71237738374009</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>-0.46293294387550571</v>
+      </c>
+      <c r="E8">
+        <v>1.8880683097281832</v>
+      </c>
+      <c r="F8">
+        <v>6.8880683097281832</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C9">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+      <c r="D9">
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.9877746125013118</v>
+      </c>
+      <c r="F9">
+        <v>3.9877746125013118</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10">
+        <v>105</v>
+      </c>
+      <c r="D10">
+        <v>0.53790164169432031</v>
+      </c>
+      <c r="E10">
+        <v>7.0640245213143373</v>
+      </c>
+      <c r="F10">
+        <v>2.0640245213143373</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11">
+        <v>110</v>
+      </c>
+      <c r="D11">
+        <v>1.0031017980432493</v>
+      </c>
+      <c r="E11">
+        <v>10.953943365573252</v>
+      </c>
+      <c r="F11">
+        <v>0.95394336557325232</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12">
+        <v>115</v>
+      </c>
+      <c r="D12">
+        <v>1.4476194237515863</v>
+      </c>
+      <c r="E12">
+        <v>15.394940132447118</v>
+      </c>
+      <c r="F12">
+        <v>0.39494013244711823</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13">
+        <v>1.8732155679395459</v>
+      </c>
+      <c r="E13">
+        <v>20.147335155685013</v>
+      </c>
+      <c r="F13">
+        <v>0.14733515568501332</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" cm="1">
-        <f t="array" ref="C6">_xll.\OPTION.NORMAL()</f>
-        <v>2377331343536</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" cm="1">
-        <f t="array" ref="C7">_xll.OPTION.BLACK.PUT(f, s, k, m)</f>
-        <v>3.9877746125013118</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" cm="1">
-        <f t="array" ref="C8">_xll.OPTION.BLACK.PUT(f, s, k, m)</f>
-        <v>3.9877746125013118</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" cm="1">
-        <f t="array" ref="C15">_xll.\OPTION.NORMAL()</f>
-        <v>2377331343536</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" cm="1">
-        <f t="array" ref="C16">_xll.OPTION.BSM.PUT(r_,s0,sigma,k2_,t,m2_)</f>
-        <v>2.0267510941802414</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3" cm="1">
-        <f t="array" ref="C17">_xll.OPTION.BSM.CALL(r_,s0,sigma,k2_,t,m2_)</f>
-        <v>7.1538607317826575</v>
-      </c>
+      <c r="C14" s="2" cm="1">
+        <f t="array" ref="C14">_xll.\OPTION.NORMAL()</f>
+        <v>1883538988192</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/hw3.xlsx
+++ b/xlsx/hw3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13466\source\repos\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA3AA1E-9BF4-4F0D-B697-B8E841C55E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16632C35-E88C-4478-A09A-9401236075FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EA092A42-1670-4D44-86F1-B9E7694F8A62}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="B3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -733,7 +733,7 @@
       </c>
       <c r="C14" s="2" cm="1">
         <f t="array" ref="C14">_xll.\OPTION.NORMAL()</f>
-        <v>1883538988192</v>
+        <v>2560750804096</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">

--- a/xlsx/hw3.xlsx
+++ b/xlsx/hw3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81303\source\repos\JasperPQ\xll_ml\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_ml\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A65F775-AE32-48C1-9430-9C48F64BC9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142CD735-F8B7-4490-8DB2-0CE86CEB313F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="1395" windowWidth="21600" windowHeight="11835" xr2:uid="{EA092A42-1670-4D44-86F1-B9E7694F8A62}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13996" xr2:uid="{EA092A42-1670-4D44-86F1-B9E7694F8A62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>f</t>
   </si>
@@ -80,33 +83,39 @@
   <si>
     <t>m</t>
   </si>
+  <si>
+    <t>moneyness</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="&quot;0x&quot;#"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="63"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -131,7 +140,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -140,14 +149,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Handle" xfId="1" xr:uid="{1D654BEF-DD87-407E-A523-E3474ECC1167}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -231,7 +240,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -547,35 +556,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE06CDEE-4F3C-473F-9F8B-5F0D6CBFE894}">
-  <dimension ref="B3:C7"/>
+  <dimension ref="B3:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.578125" customWidth="1"/>
+    <col min="3" max="3" width="11.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">_xll.XLL.ALERT.LEVEL(7)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">_xll.XLL_ALERT_INFORMATION()</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -583,22 +600,166 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" cm="1">
         <f t="array" ref="C6">_xll.\OPTION.NORMAL()</f>
-        <v>2410180663760</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <v>1715688253392</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3" cm="1">
         <f t="array" ref="C7">_xll.OPTION.BLACK.PUT(f, s, k, m)</f>
         <v>3.9877746125013118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" cm="1">
+        <f t="array" ref="D9:D17">_xlfn.SEQUENCE(9,1,80,5)</f>
+        <v>80</v>
+      </c>
+      <c r="E9" cm="1">
+        <f t="array" ref="E9:E17">_xlfn.MAP(_xlfn.ANCHORARRAY($D9),_xlfn.LAMBDA(_xlpm.k,_xll.OPTION.BLACK.MONEYNESS(f,s,_xlpm.k,m)))</f>
+        <v>-2.1814355131420968</v>
+      </c>
+      <c r="F9" cm="1">
+        <f t="array" ref="F9:F17">_xlfn.MAP(_xlfn.ANCHORARRAY($D9),_xlfn.LAMBDA(_xlpm.k,_xll.OPTION.BLACK.PUT(f,s,_xlpm.k,m)))</f>
+        <v>3.9913489502149124E-2</v>
+      </c>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9:G17">_xlfn.MAP(_xlfn.ANCHORARRAY($D9),_xlfn.LAMBDA(_xlpm.k,_xll.OPTION.BLACK.CALL(f,s,_xlpm.k,m)))</f>
+        <v>20.039913489502155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <v>-1.5751892949777493</v>
+      </c>
+      <c r="F10">
+        <v>0.20169020324580078</v>
+      </c>
+      <c r="G10">
+        <v>15.201690203245803</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>-1.0036051565782627</v>
+      </c>
+      <c r="F11">
+        <v>0.7123773837400833</v>
+      </c>
+      <c r="G11">
+        <v>10.71237738374009</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12">
+        <v>95</v>
+      </c>
+      <c r="E12">
+        <v>-0.46293294387550571</v>
+      </c>
+      <c r="F12">
+        <v>1.8880683097281832</v>
+      </c>
+      <c r="G12">
+        <v>6.8880683097281832</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>5.000000000000001E-2</v>
+      </c>
+      <c r="F13">
+        <v>3.9877746125013118</v>
+      </c>
+      <c r="G13">
+        <v>3.9877746125013118</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14">
+        <v>105</v>
+      </c>
+      <c r="E14">
+        <v>0.53790164169432031</v>
+      </c>
+      <c r="F14">
+        <v>7.0640245213143373</v>
+      </c>
+      <c r="G14">
+        <v>2.0640245213143373</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15">
+        <v>110</v>
+      </c>
+      <c r="E15">
+        <v>1.0031017980432493</v>
+      </c>
+      <c r="F15">
+        <v>10.953943365573252</v>
+      </c>
+      <c r="G15">
+        <v>0.95394336557325232</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16">
+        <v>115</v>
+      </c>
+      <c r="E16">
+        <v>1.4476194237515863</v>
+      </c>
+      <c r="F16">
+        <v>15.394940132447118</v>
+      </c>
+      <c r="G16">
+        <v>0.39494013244711823</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17">
+        <v>120</v>
+      </c>
+      <c r="E17">
+        <v>1.8732155679395459</v>
+      </c>
+      <c r="F17">
+        <v>20.147335155685013</v>
+      </c>
+      <c r="G17">
+        <v>0.14733515568501332</v>
       </c>
     </row>
   </sheetData>
